--- a/r_map/data_egrid_emf_Hg.xlsx
+++ b/r_map/data_egrid_emf_Hg.xlsx
@@ -533,13 +533,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>37.743433160485218</v>
+        <v>37.792238094998311</v>
       </c>
       <c r="C7">
-        <v>2.6724772024636483</v>
+        <v>2.6899686093220865</v>
       </c>
       <c r="D7">
-        <v>39.136834743040055</v>
+        <v>38.651575153294161</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -547,13 +547,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29.564847344577835</v>
+        <v>30.559623378389777</v>
       </c>
       <c r="C8">
-        <v>2.7318844527589565</v>
+        <v>3.0001593996780702</v>
       </c>
       <c r="D8">
-        <v>1.5058558610127439</v>
+        <v>1.5759671435270779</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -589,13 +589,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.141956588251119</v>
+        <v>22.811500445179327</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>51.18420023730058</v>
+        <v>50.776943583809043</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -609,7 +609,7 @@
         <v>1.4225180620101663</v>
       </c>
       <c r="D12">
-        <v>42.103789788868895</v>
+        <v>42.154890052376558</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -631,13 +631,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.577518657289382</v>
+        <v>20.813645019563033</v>
       </c>
       <c r="C14">
-        <v>0.86192688744667001</v>
+        <v>0.86747985963692509</v>
       </c>
       <c r="D14">
-        <v>11.586271592051901</v>
+        <v>11.475173630841971</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -673,13 +673,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>44.98871436716535</v>
+        <v>45.360842691636009</v>
       </c>
       <c r="C17">
-        <v>3.9346118406871566</v>
+        <v>3.9513032710090692</v>
       </c>
       <c r="D17">
-        <v>29.546906264621114</v>
+        <v>29.529162010473012</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -687,13 +687,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>36.755835908322581</v>
+        <v>36.898436965543567</v>
       </c>
       <c r="C18">
-        <v>5.1553881560876871</v>
+        <v>5.1373128662883385</v>
       </c>
       <c r="D18">
-        <v>27.9112929190321</v>
+        <v>27.505098179806527</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -701,13 +701,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.108670467648485</v>
+        <v>13.047247429365633</v>
       </c>
       <c r="C19">
-        <v>1.5108945467420138</v>
+        <v>1.4749295946571304</v>
       </c>
       <c r="D19">
-        <v>44.847425976643599</v>
+        <v>44.84967827200915</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -715,13 +715,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>37.53889034433287</v>
+        <v>36.481696996027587</v>
       </c>
       <c r="C20">
-        <v>3.8665919503155539</v>
+        <v>3.8698152952969265</v>
       </c>
       <c r="D20">
-        <v>6.505656501858101</v>
+        <v>6.4871295303111607</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -729,13 +729,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>43.317321945336488</v>
+        <v>43.661110214743914</v>
       </c>
       <c r="C21">
         <v>0.63587478217224658</v>
       </c>
       <c r="D21">
-        <v>24.462690623051774</v>
+        <v>24.656838961329964</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -743,13 +743,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.328968046349656</v>
+        <v>14.289427111843656</v>
       </c>
       <c r="C22">
-        <v>3.0043743853437386</v>
+        <v>3.0157614663763033</v>
       </c>
       <c r="D22">
-        <v>54.743772204844021</v>
+        <v>54.529485401422178</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -757,13 +757,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.710762142609504</v>
+        <v>12.824589300889787</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>53.066090092038017</v>
+        <v>53.047119005840216</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -771,7 +771,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>57.205926085734966</v>
+        <v>57.405296121545312</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>45.118855728484277</v>
+        <v>45.448042450949316</v>
       </c>
       <c r="C25">
-        <v>4.8161902695982377</v>
+        <v>4.807848201586908</v>
       </c>
       <c r="D25">
-        <v>13.57487234569847</v>
+        <v>13.579283625491225</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -802,10 +802,10 @@
         <v>8.0720833851536806</v>
       </c>
       <c r="C26">
-        <v>2.6788495776456189</v>
+        <v>2.7292561097730452</v>
       </c>
       <c r="D26">
-        <v>9.5076710442309089</v>
+        <v>9.5620007398595899</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -813,13 +813,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>29.325363353852524</v>
+        <v>29.630667831412538</v>
       </c>
       <c r="C27">
-        <v>3.3757472052603221</v>
+        <v>3.349378456990407</v>
       </c>
       <c r="D27">
-        <v>15.273666391742447</v>
+        <v>15.144865003536417</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -827,13 +827,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>38.226115195030616</v>
+        <v>38.236907948796912</v>
       </c>
       <c r="C28">
-        <v>4.5471802484314612</v>
+        <v>4.5533827981436747</v>
       </c>
       <c r="D28">
-        <v>4.5855352839136341</v>
+        <v>4.5747885870042575</v>
       </c>
     </row>
   </sheetData>

--- a/r_map/data_egrid_emf_Hg.xlsx
+++ b/r_map/data_egrid_emf_Hg.xlsx
@@ -533,13 +533,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>37.792238094998311</v>
+        <v>37.822607535035985</v>
       </c>
       <c r="C7">
-        <v>2.6899686093220865</v>
+        <v>2.6907815718520993</v>
       </c>
       <c r="D7">
-        <v>38.651575153294161</v>
+        <v>38.891782761502952</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -547,13 +547,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>30.559623378389777</v>
+        <v>28.601273971767629</v>
       </c>
       <c r="C8">
-        <v>3.0001593996780702</v>
+        <v>2.6838857791445001</v>
       </c>
       <c r="D8">
-        <v>1.5759671435270779</v>
+        <v>1.4567772172419626</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -589,13 +589,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.811500445179327</v>
+        <v>23.069099356738054</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>50.776943583809043</v>
+        <v>52.261232459448998</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.556316928498855</v>
+        <v>24.756407545390488</v>
       </c>
       <c r="C12">
         <v>1.4225180620101663</v>
@@ -631,13 +631,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.813645019563033</v>
+        <v>21.075406674775625</v>
       </c>
       <c r="C14">
-        <v>0.86747985963692509</v>
+        <v>0.86765825851103606</v>
       </c>
       <c r="D14">
-        <v>11.475173630841971</v>
+        <v>11.490688645649771</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -673,13 +673,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>45.360842691636009</v>
+        <v>45.206651723003048</v>
       </c>
       <c r="C17">
-        <v>3.9513032710090692</v>
+        <v>3.9433274142346972</v>
       </c>
       <c r="D17">
-        <v>29.529162010473012</v>
+        <v>29.466306386657244</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -687,13 +687,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>36.898436965543567</v>
+        <v>36.999033276137453</v>
       </c>
       <c r="C18">
-        <v>5.1373128662883385</v>
+        <v>5.1587658635517091</v>
       </c>
       <c r="D18">
-        <v>27.505098179806527</v>
+        <v>27.809943303573242</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -701,13 +701,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.047247429365633</v>
+        <v>13.169453225370065</v>
       </c>
       <c r="C19">
-        <v>1.4749295946571304</v>
+        <v>1.4898316267413674</v>
       </c>
       <c r="D19">
-        <v>44.84967827200915</v>
+        <v>44.878912096049561</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -718,10 +718,10 @@
         <v>36.481696996027587</v>
       </c>
       <c r="C20">
-        <v>3.8698152952969265</v>
+        <v>3.8642503940005453</v>
       </c>
       <c r="D20">
-        <v>6.4871295303111607</v>
+        <v>6.2100481759362349</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -729,13 +729,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>43.661110214743914</v>
+        <v>43.317321945336488</v>
       </c>
       <c r="C21">
         <v>0.63587478217224658</v>
       </c>
       <c r="D21">
-        <v>24.656838961329964</v>
+        <v>24.462690623051774</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -743,13 +743,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.289427111843656</v>
+        <v>14.299383965080596</v>
       </c>
       <c r="C22">
-        <v>3.0157614663763033</v>
+        <v>2.9715062821483409</v>
       </c>
       <c r="D22">
-        <v>54.529485401422178</v>
+        <v>54.621409685883982</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -757,13 +757,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.824589300889787</v>
+        <v>12.941787096665168</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>53.047119005840216</v>
+        <v>53.435944510475274</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -771,7 +771,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>57.405296121545312</v>
+        <v>57.097789306836638</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>45.448042450949316</v>
+        <v>45.47095593237114</v>
       </c>
       <c r="C25">
-        <v>4.807848201586908</v>
+        <v>4.3994268372349623</v>
       </c>
       <c r="D25">
-        <v>13.579283625491225</v>
+        <v>13.619984315423633</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -802,10 +802,10 @@
         <v>8.0720833851536806</v>
       </c>
       <c r="C26">
-        <v>2.7292561097730452</v>
+        <v>2.6684847593276642</v>
       </c>
       <c r="D26">
-        <v>9.5620007398595899</v>
+        <v>9.5053432750183458</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -813,13 +813,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>29.630667831412538</v>
+        <v>29.795582715016771</v>
       </c>
       <c r="C27">
-        <v>3.349378456990407</v>
+        <v>3.3962816777326994</v>
       </c>
       <c r="D27">
-        <v>15.144865003536417</v>
+        <v>15.267505118238194</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -827,13 +827,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>38.236907948796912</v>
+        <v>37.987572359690503</v>
       </c>
       <c r="C28">
-        <v>4.5533827981436747</v>
+        <v>4.5770153789240684</v>
       </c>
       <c r="D28">
-        <v>4.5747885870042575</v>
+        <v>4.5846440918723381</v>
       </c>
     </row>
   </sheetData>

--- a/r_map/data_egrid_emf_Hg.xlsx
+++ b/r_map/data_egrid_emf_Hg.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14985" windowHeight="6825"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19905" windowHeight="6810"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -435,9 +435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -461,85 +459,47 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.1388861298282453</v>
+        <v>10.030263468804595</v>
       </c>
       <c r="C5">
-        <v>0.37048318038187872</v>
+        <v>0.27466506468859281</v>
       </c>
       <c r="D5">
-        <v>1.3337394493747639</v>
+        <v>8.9437722055330475</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>37.822607535035985</v>
+        <v>63.338268618236683</v>
       </c>
       <c r="C7">
-        <v>2.6907815718520993</v>
+        <v>0.70615137532559336</v>
       </c>
       <c r="D7">
-        <v>38.891782761502952</v>
+        <v>25.282344481046188</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -547,55 +507,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28.601273971767629</v>
+        <v>25.850112398748671</v>
       </c>
       <c r="C8">
-        <v>2.6838857791445001</v>
+        <v>1.734005357129687</v>
       </c>
       <c r="D8">
-        <v>1.4567772172419626</v>
+        <v>11.830814715060846</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.069099356738054</v>
+        <v>32.325938310834488</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>52.261232459448998</v>
+        <v>29.90704759777244</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -603,83 +545,56 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.756407545390488</v>
+        <v>40.154462470993749</v>
       </c>
       <c r="C12">
-        <v>1.4225180620101663</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>42.154890052376558</v>
+        <v>28.01502419513093</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.075406674775625</v>
+        <v>13.035302049642638</v>
       </c>
       <c r="C14">
-        <v>0.86765825851103606</v>
+        <v>0.40885826421658927</v>
       </c>
       <c r="D14">
-        <v>11.490688645649771</v>
+        <v>14.416476200941689</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>45.206651723003048</v>
+        <v>40.171409052504941</v>
       </c>
       <c r="C17">
-        <v>3.9433274142346972</v>
+        <v>1.6438284503855169</v>
       </c>
       <c r="D17">
-        <v>29.466306386657244</v>
+        <v>34.620596696822972</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -687,13 +602,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>36.999033276137453</v>
+        <v>36.841194855346359</v>
       </c>
       <c r="C18">
-        <v>5.1587658635517091</v>
+        <v>0.43714356403512616</v>
       </c>
       <c r="D18">
-        <v>27.809943303573242</v>
+        <v>9.1204043587328627</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -701,13 +616,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.169453225370065</v>
+        <v>4.1229085237382082</v>
       </c>
       <c r="C19">
-        <v>1.4898316267413674</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>44.878912096049561</v>
+        <v>53.210752066847533</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -715,13 +630,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>36.481696996027587</v>
+        <v>37.531410130375463</v>
       </c>
       <c r="C20">
-        <v>3.8642503940005453</v>
+        <v>2.8726640255485316</v>
       </c>
       <c r="D20">
-        <v>6.2100481759362349</v>
+        <v>4.8618491656354355</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -729,13 +644,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>43.317321945336488</v>
+        <v>39.896672744705995</v>
       </c>
       <c r="C21">
-        <v>0.63587478217224658</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>24.462690623051774</v>
+        <v>22.530939550568363</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -743,13 +658,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.299383965080596</v>
+        <v>17.251835739868511</v>
       </c>
       <c r="C22">
-        <v>2.9715062821483409</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>54.621409685883982</v>
+        <v>44.383413618563992</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -757,13 +672,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.941787096665168</v>
+        <v>25.07653965274055</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>53.435944510475274</v>
+        <v>50.473121540651618</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -771,13 +686,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>57.097789306836638</v>
+        <v>45.889629975037529</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>15.030553511072434</v>
+        <v>17.305087623994527</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -785,13 +700,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>45.47095593237114</v>
+        <v>48.532755881630855</v>
       </c>
       <c r="C25">
-        <v>4.3994268372349623</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>13.619984315423633</v>
+        <v>12.10134012994699</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -799,13 +714,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>8.0720833851536806</v>
+        <v>28.738183274811526</v>
       </c>
       <c r="C26">
-        <v>2.6684847593276642</v>
+        <v>0.80978737303684145</v>
       </c>
       <c r="D26">
-        <v>9.5053432750183458</v>
+        <v>3.1185263198997348</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -813,13 +728,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>29.795582715016771</v>
+        <v>31.09612521834983</v>
       </c>
       <c r="C27">
-        <v>3.3962816777326994</v>
+        <v>1.6054482547722724</v>
       </c>
       <c r="D27">
-        <v>15.267505118238194</v>
+        <v>18.868140124036955</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -827,13 +742,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>37.987572359690503</v>
+        <v>22.693288454845842</v>
       </c>
       <c r="C28">
-        <v>4.5770153789240684</v>
+        <v>1.0603899780532324</v>
       </c>
       <c r="D28">
-        <v>4.5846440918723381</v>
+        <v>9.4312119869575231</v>
       </c>
     </row>
   </sheetData>

--- a/r_map/data_egrid_emf_Hg.xlsx
+++ b/r_map/data_egrid_emf_Hg.xlsx
@@ -474,13 +474,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.030263468804595</v>
+        <v>7.3973141682915102</v>
       </c>
       <c r="C5">
-        <v>0.27466506468859281</v>
+        <v>0.14814375886436101</v>
       </c>
       <c r="D5">
-        <v>8.9437722055330475</v>
+        <v>7.6946542968670402</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -499,7 +499,7 @@
         <v>0.70615137532559336</v>
       </c>
       <c r="D7">
-        <v>25.282344481046188</v>
+        <v>22.813350029660832</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -507,13 +507,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.850112398748671</v>
+        <v>27.465494818840153</v>
       </c>
       <c r="C8">
-        <v>1.734005357129687</v>
+        <v>1.6260938337383766</v>
       </c>
       <c r="D8">
-        <v>11.830814715060846</v>
+        <v>9.9562596473047087</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -531,13 +531,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.325938310834488</v>
+        <v>36.816468749811449</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>29.90704759777244</v>
+        <v>20.882440305774484</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -545,13 +545,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>40.154462470993749</v>
+        <v>41.523553938490778</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>28.01502419513093</v>
+        <v>26.885059555058994</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -564,13 +564,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.035302049642638</v>
+        <v>19.486153847891028</v>
       </c>
       <c r="C14">
-        <v>0.40885826421658927</v>
+        <v>0.29147226075451121</v>
       </c>
       <c r="D14">
-        <v>14.416476200941689</v>
+        <v>12.16107844354066</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -588,13 +588,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>40.171409052504941</v>
+        <v>45.383661056296518</v>
       </c>
       <c r="C17">
-        <v>1.6438284503855169</v>
+        <v>1.4182012161285864</v>
       </c>
       <c r="D17">
-        <v>34.620596696822972</v>
+        <v>29.33246448540104</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -602,13 +602,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>36.841194855346359</v>
+        <v>47.718969729854848</v>
       </c>
       <c r="C18">
-        <v>0.43714356403512616</v>
+        <v>0.46524782763105599</v>
       </c>
       <c r="D18">
-        <v>9.1204043587328627</v>
+        <v>7.1924510678553126</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -616,13 +616,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.1229085237382082</v>
+        <v>13.492639850759762</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>53.210752066847533</v>
+        <v>43.426468720724202</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -630,13 +630,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>37.531410130375463</v>
+        <v>38.934076480058238</v>
       </c>
       <c r="C20">
-        <v>2.8726640255485316</v>
+        <v>2.3731203348415986</v>
       </c>
       <c r="D20">
-        <v>4.8618491656354355</v>
+        <v>7.3716287036456434</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -644,13 +644,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>39.896672744705995</v>
+        <v>40.205527461993398</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>22.530939550568363</v>
+        <v>22.705359783795299</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -658,13 +658,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.251835739868511</v>
+        <v>34.375830990633247</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>44.383413618563992</v>
+        <v>25.982993370849659</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -672,13 +672,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.07653965274055</v>
+        <v>34.326143140675796</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>50.473121540651618</v>
+        <v>36.268372706706558</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -686,13 +686,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>45.889629975037529</v>
+        <v>45.732591613085717</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>17.305087623994527</v>
+        <v>17.180232459795224</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -700,13 +700,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>48.532755881630855</v>
+        <v>48.223490610689609</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>12.10134012994699</v>
+        <v>13.106567106487848</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -714,13 +714,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>28.738183274811526</v>
+        <v>27.881907098690359</v>
       </c>
       <c r="C26">
-        <v>0.80978737303684145</v>
+        <v>1.4530734990347851</v>
       </c>
       <c r="D26">
-        <v>3.1185263198997348</v>
+        <v>3.9241209721414494</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -728,13 +728,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>31.09612521834983</v>
+        <v>36.772546695502257</v>
       </c>
       <c r="C27">
-        <v>1.6054482547722724</v>
+        <v>1.1535423607123096</v>
       </c>
       <c r="D27">
-        <v>18.868140124036955</v>
+        <v>2.6869815292431616</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -742,13 +742,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>22.693288454845842</v>
+        <v>34.472520598432808</v>
       </c>
       <c r="C28">
-        <v>1.0603899780532324</v>
+        <v>1.0297316322904859</v>
       </c>
       <c r="D28">
-        <v>9.4312119869575231</v>
+        <v>10.01531539587117</v>
       </c>
     </row>
   </sheetData>

--- a/r_map/data_egrid_emf_Hg.xlsx
+++ b/r_map/data_egrid_emf_Hg.xlsx
@@ -474,13 +474,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.3973141682915102</v>
+        <v>0.5021227866937743</v>
       </c>
       <c r="C5">
-        <v>0.14814375886436101</v>
+        <v>3.6600124038743541E-2</v>
       </c>
       <c r="D5">
-        <v>7.6946542968670402</v>
+        <v>9.310312614494011E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -493,13 +493,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>63.338268618236683</v>
+        <v>5.9509336137410864</v>
       </c>
       <c r="C7">
-        <v>0.70615137532559336</v>
+        <v>0.17589663884708953</v>
       </c>
       <c r="D7">
-        <v>22.813350029660832</v>
+        <v>1.8810431795225795</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -507,13 +507,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>27.465494818840153</v>
+        <v>0.53977175382745823</v>
       </c>
       <c r="C8">
-        <v>1.6260938337383766</v>
+        <v>4.5135982952844225E-2</v>
       </c>
       <c r="D8">
-        <v>9.9562596473047087</v>
+        <v>0.11176427719582135</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -531,13 +531,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>36.816468749811449</v>
+        <v>1.7618568524032712</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>3.115566246519964E-2</v>
       </c>
       <c r="D11">
-        <v>20.882440305774484</v>
+        <v>0.29657470165679828</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -545,13 +545,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>41.523553938490778</v>
+        <v>4.0297154704431204</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.12578524359393609</v>
       </c>
       <c r="D12">
-        <v>26.885059555058994</v>
+        <v>2.2122799066410361</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -564,13 +564,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.486153847891028</v>
+        <v>2.9926719551179568</v>
       </c>
       <c r="C14">
-        <v>0.29147226075451121</v>
+        <v>8.4812519660436889E-2</v>
       </c>
       <c r="D14">
-        <v>12.16107844354066</v>
+        <v>0.81327145840110182</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -588,13 +588,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>45.383661056296518</v>
+        <v>0.423819427194849</v>
       </c>
       <c r="C17">
-        <v>1.4182012161285864</v>
+        <v>3.5923167312428617E-3</v>
       </c>
       <c r="D17">
-        <v>29.33246448540104</v>
+        <v>0.25614359800769099</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -602,13 +602,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>47.718969729854848</v>
+        <v>1.0676707032386923</v>
       </c>
       <c r="C18">
-        <v>0.46524782763105599</v>
+        <v>4.1658802222293199E-2</v>
       </c>
       <c r="D18">
-        <v>7.1924510678553126</v>
+        <v>1.0318023415418591</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -616,13 +616,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.492639850759762</v>
+        <v>1.2257624098661299</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>8.1656754108347968E-2</v>
       </c>
       <c r="D19">
-        <v>43.426468720724202</v>
+        <v>0.90707438306041455</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -630,13 +630,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>38.934076480058238</v>
+        <v>9.7176908415361005</v>
       </c>
       <c r="C20">
-        <v>2.3731203348415986</v>
+        <v>0.50440405937546784</v>
       </c>
       <c r="D20">
-        <v>7.3716287036456434</v>
+        <v>2.4970016104618855</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -644,13 +644,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>40.205527461993398</v>
+        <v>1.9174302782375319</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.10215175817893439</v>
       </c>
       <c r="D21">
-        <v>22.705359783795299</v>
+        <v>0.48000277419155385</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -658,13 +658,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.375830990633247</v>
+        <v>1.131529124430239</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>3.4380954564611516E-2</v>
       </c>
       <c r="D22">
-        <v>25.982993370849659</v>
+        <v>0.41741473811975177</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -672,13 +672,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.326143140675796</v>
+        <v>1.889234381536828</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>7.5511425963172452E-2</v>
       </c>
       <c r="D23">
-        <v>36.268372706706558</v>
+        <v>1.7548665520775215</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -686,13 +686,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>45.732591613085717</v>
+        <v>0.41910151341944701</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>3.2451341195069962E-2</v>
       </c>
       <c r="D24">
-        <v>17.180232459795224</v>
+        <v>5.3583892806062038E-2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -700,13 +700,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>48.223490610689609</v>
+        <v>2.3151936473658759</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>2.0106100758396684E-2</v>
       </c>
       <c r="D25">
-        <v>13.106567106487848</v>
+        <v>1.6733228076345497</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -714,13 +714,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>27.881907098690359</v>
+        <v>1.8711080690234048</v>
       </c>
       <c r="C26">
-        <v>1.4530734990347851</v>
+        <v>0.10573056497720043</v>
       </c>
       <c r="D26">
-        <v>3.9241209721414494</v>
+        <v>0.57205169290449942</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -728,13 +728,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>36.772546695502257</v>
+        <v>3.1404265720573035</v>
       </c>
       <c r="C27">
-        <v>1.1535423607123096</v>
+        <v>0.16409575628050913</v>
       </c>
       <c r="D27">
-        <v>2.6869815292431616</v>
+        <v>0.86560636894360643</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -742,13 +742,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>34.472520598432808</v>
+        <v>2.0564606002018149</v>
       </c>
       <c r="C28">
-        <v>1.0297316322904859</v>
+        <v>9.9273742386598252E-2</v>
       </c>
       <c r="D28">
-        <v>10.01531539587117</v>
+        <v>0.50084090652905822</v>
       </c>
     </row>
   </sheetData>

--- a/r_map/data_egrid_emf_Hg.xlsx
+++ b/r_map/data_egrid_emf_Hg.xlsx
@@ -474,13 +474,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5021227866937743</v>
+        <v>0.552020797677646</v>
       </c>
       <c r="C5">
-        <v>3.6600124038743541E-2</v>
+        <v>3.7218688327443447E-2</v>
       </c>
       <c r="D5">
-        <v>9.310312614494011E-2</v>
+        <v>4.1772348920429879E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -493,13 +493,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.9509336137410864</v>
+        <v>5.887746458637575</v>
       </c>
       <c r="C7">
-        <v>0.17589663884708953</v>
+        <v>0.14033033230028319</v>
       </c>
       <c r="D7">
-        <v>1.8810431795225795</v>
+        <v>1.5747381783615222</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -507,13 +507,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.53977175382745823</v>
+        <v>0.56427698494402989</v>
       </c>
       <c r="C8">
-        <v>4.5135982952844225E-2</v>
+        <v>4.6858867302595142E-2</v>
       </c>
       <c r="D8">
-        <v>0.11176427719582135</v>
+        <v>0.11816619899765356</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -531,13 +531,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.7618568524032712</v>
+        <v>1.6688105044077446</v>
       </c>
       <c r="C11">
-        <v>3.115566246519964E-2</v>
+        <v>3.13992299162109E-2</v>
       </c>
       <c r="D11">
-        <v>0.29657470165679828</v>
+        <v>0.24674824722578104</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -545,13 +545,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.0297154704431204</v>
+        <v>4.4556905606570183</v>
       </c>
       <c r="C12">
-        <v>0.12578524359393609</v>
+        <v>0.11981751728257885</v>
       </c>
       <c r="D12">
-        <v>2.2122799066410361</v>
+        <v>1.7179330027068458</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -564,13 +564,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.9926719551179568</v>
+        <v>3.0662983744488881</v>
       </c>
       <c r="C14">
-        <v>8.4812519660436889E-2</v>
+        <v>7.8290534704771458E-2</v>
       </c>
       <c r="D14">
-        <v>0.81327145840110182</v>
+        <v>0.71605070902052759</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -588,13 +588,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.423819427194849</v>
+        <v>0.49300033522356285</v>
       </c>
       <c r="C17">
-        <v>3.5923167312428617E-3</v>
+        <v>2.9742871745181377E-3</v>
       </c>
       <c r="D17">
-        <v>0.25614359800769099</v>
+        <v>0.1591624080087729</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -602,13 +602,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.0676707032386923</v>
+        <v>1.0595139569153285</v>
       </c>
       <c r="C18">
-        <v>4.1658802222293199E-2</v>
+        <v>3.8601650144420158E-2</v>
       </c>
       <c r="D18">
-        <v>1.0318023415418591</v>
+        <v>1.0132129735914934</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -616,13 +616,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.2257624098661299</v>
+        <v>1.2235329134554156</v>
       </c>
       <c r="C19">
-        <v>8.1656754108347968E-2</v>
+        <v>8.3033486027717401E-2</v>
       </c>
       <c r="D19">
-        <v>0.90707438306041455</v>
+        <v>0.88894514207060304</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -630,13 +630,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.7176908415361005</v>
+        <v>10.118623953953241</v>
       </c>
       <c r="C20">
-        <v>0.50440405937546784</v>
+        <v>0.4972681892915769</v>
       </c>
       <c r="D20">
-        <v>2.4970016104618855</v>
+        <v>2.0073197206277169</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -644,13 +644,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.9174302782375319</v>
+        <v>2.2015932773276417</v>
       </c>
       <c r="C21">
-        <v>0.10215175817893439</v>
+        <v>0.10428905128668986</v>
       </c>
       <c r="D21">
-        <v>0.48000277419155385</v>
+        <v>0.18871690821228074</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -658,13 +658,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.131529124430239</v>
+        <v>1.1078115039356924</v>
       </c>
       <c r="C22">
-        <v>3.4380954564611516E-2</v>
+        <v>2.1409112697058238E-2</v>
       </c>
       <c r="D22">
-        <v>0.41741473811975177</v>
+        <v>0.45234337288385151</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -672,13 +672,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.889234381536828</v>
+        <v>2.3256318403863818</v>
       </c>
       <c r="C23">
-        <v>7.5511425963172452E-2</v>
+        <v>9.8219110443525381E-2</v>
       </c>
       <c r="D23">
-        <v>1.7548665520775215</v>
+        <v>1.2638168626566357</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -686,13 +686,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.41910151341944701</v>
+        <v>0.42136009761146614</v>
       </c>
       <c r="C24">
-        <v>3.2451341195069962E-2</v>
+        <v>3.316249852242005E-2</v>
       </c>
       <c r="D24">
-        <v>5.3583892806062038E-2</v>
+        <v>5.2589511929746736E-2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -700,13 +700,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.3151936473658759</v>
+        <v>2.3964294277877904</v>
       </c>
       <c r="C25">
-        <v>2.0106100758396684E-2</v>
+        <v>2.003887252744873E-2</v>
       </c>
       <c r="D25">
-        <v>1.6733228076345497</v>
+        <v>1.5524555838533873</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -714,13 +714,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.8711080690234048</v>
+        <v>1.91712384551855</v>
       </c>
       <c r="C26">
-        <v>0.10573056497720043</v>
+        <v>0.10609531991554882</v>
       </c>
       <c r="D26">
-        <v>0.57205169290449942</v>
+        <v>0.49088698085254556</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -728,13 +728,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>3.1404265720573035</v>
+        <v>3.2422529429629865</v>
       </c>
       <c r="C27">
-        <v>0.16409575628050913</v>
+        <v>0.16022280778190898</v>
       </c>
       <c r="D27">
-        <v>0.86560636894360643</v>
+        <v>0.73629706566311548</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -742,13 +742,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2.0564606002018149</v>
+        <v>2.1417347584145414</v>
       </c>
       <c r="C28">
-        <v>9.9273742386598252E-2</v>
+        <v>9.5893635315825107E-2</v>
       </c>
       <c r="D28">
-        <v>0.50084090652905822</v>
+        <v>0.32655562559755169</v>
       </c>
     </row>
   </sheetData>

--- a/r_map/data_egrid_emf_Hg.xlsx
+++ b/r_map/data_egrid_emf_Hg.xlsx
@@ -474,13 +474,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.552020797677646</v>
+        <v>0.55291933729290854</v>
       </c>
       <c r="C5">
-        <v>3.7218688327443447E-2</v>
+        <v>3.7201655762508425E-2</v>
       </c>
       <c r="D5">
-        <v>4.1772348920429879E-2</v>
+        <v>4.2080889838379265E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -493,13 +493,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.887746458637575</v>
+        <v>5.8790176509471062</v>
       </c>
       <c r="C7">
-        <v>0.14033033230028319</v>
+        <v>0.13985954595569319</v>
       </c>
       <c r="D7">
-        <v>1.5747381783615222</v>
+        <v>1.5753284961181173</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -507,13 +507,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.56427698494402989</v>
+        <v>0.55051201350063084</v>
       </c>
       <c r="C8">
-        <v>4.6858867302595142E-2</v>
+        <v>4.6957591701251286E-2</v>
       </c>
       <c r="D8">
-        <v>0.11816619899765356</v>
+        <v>0.11878642186747311</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -531,13 +531,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.6688105044077446</v>
+        <v>1.6689695754745895</v>
       </c>
       <c r="C11">
-        <v>3.13992299162109E-2</v>
+        <v>3.1380121511281181E-2</v>
       </c>
       <c r="D11">
-        <v>0.24674824722578104</v>
+        <v>0.24742220209809906</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -545,13 +545,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.4556905606570183</v>
+        <v>4.4544770248008625</v>
       </c>
       <c r="C12">
-        <v>0.11981751728257885</v>
+        <v>0.12022237610802837</v>
       </c>
       <c r="D12">
-        <v>1.7179330027068458</v>
+        <v>1.7308597322619541</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -564,13 +564,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.0662983744488881</v>
+        <v>3.0698578776982726</v>
       </c>
       <c r="C14">
-        <v>7.8290534704771458E-2</v>
+        <v>7.8279827204200209E-2</v>
       </c>
       <c r="D14">
-        <v>0.71605070902052759</v>
+        <v>0.71602876309792463</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -588,13 +588,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.49300033522356285</v>
+        <v>0.49573740669255484</v>
       </c>
       <c r="C17">
-        <v>2.9742871745181377E-3</v>
+        <v>2.9755271303232591E-3</v>
       </c>
       <c r="D17">
-        <v>0.1591624080087729</v>
+        <v>0.1608022468984035</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -602,13 +602,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.0595139569153285</v>
+        <v>1.0568129784875988</v>
       </c>
       <c r="C18">
-        <v>3.8601650144420158E-2</v>
+        <v>3.8452801188592407E-2</v>
       </c>
       <c r="D18">
-        <v>1.0132129735914934</v>
+        <v>1.0183238922906932</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -616,13 +616,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.2235329134554156</v>
+        <v>1.2211561218296874</v>
       </c>
       <c r="C19">
-        <v>8.3033486027717401E-2</v>
+        <v>8.2775109122183291E-2</v>
       </c>
       <c r="D19">
-        <v>0.88894514207060304</v>
+        <v>0.88921937428561226</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -630,13 +630,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.118623953953241</v>
+        <v>10.123514171923757</v>
       </c>
       <c r="C20">
-        <v>0.4972681892915769</v>
+        <v>0.49869438826167795</v>
       </c>
       <c r="D20">
-        <v>2.0073197206277169</v>
+        <v>2.0090421342222715</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -644,13 +644,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.2015932773276417</v>
+        <v>2.1916618435678838</v>
       </c>
       <c r="C21">
-        <v>0.10428905128668986</v>
+        <v>0.10319873701097287</v>
       </c>
       <c r="D21">
-        <v>0.18871690821228074</v>
+        <v>0.18750519783263128</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -658,13 +658,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.1078115039356924</v>
+        <v>1.1007247072784656</v>
       </c>
       <c r="C22">
-        <v>2.1409112697058238E-2</v>
+        <v>2.1255279380347446E-2</v>
       </c>
       <c r="D22">
-        <v>0.45234337288385151</v>
+        <v>0.45222927090051473</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -672,13 +672,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.3256318403863818</v>
+        <v>2.3217323939712551</v>
       </c>
       <c r="C23">
-        <v>9.8219110443525381E-2</v>
+        <v>9.796895816614698E-2</v>
       </c>
       <c r="D23">
-        <v>1.2638168626566357</v>
+        <v>1.2629865015927084</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -686,13 +686,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.42136009761146614</v>
+        <v>0.41773267501701572</v>
       </c>
       <c r="C24">
-        <v>3.316249852242005E-2</v>
+        <v>3.2595782265507578E-2</v>
       </c>
       <c r="D24">
-        <v>5.2589511929746736E-2</v>
+        <v>5.3206994467569664E-2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -700,13 +700,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.3964294277877904</v>
+        <v>2.3844277034814962</v>
       </c>
       <c r="C25">
-        <v>2.003887252744873E-2</v>
+        <v>1.9867909290122648E-2</v>
       </c>
       <c r="D25">
-        <v>1.5524555838533873</v>
+        <v>1.5680209108130214</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -714,13 +714,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.91712384551855</v>
+        <v>1.9187149638260326</v>
       </c>
       <c r="C26">
-        <v>0.10609531991554882</v>
+        <v>0.1059317666762583</v>
       </c>
       <c r="D26">
-        <v>0.49088698085254556</v>
+        <v>0.48706006072605651</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -728,13 +728,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>3.2422529429629865</v>
+        <v>3.2394831666078354</v>
       </c>
       <c r="C27">
-        <v>0.16022280778190898</v>
+        <v>0.16024184659131152</v>
       </c>
       <c r="D27">
-        <v>0.73629706566311548</v>
+        <v>0.73531212416477065</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -742,13 +742,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2.1417347584145414</v>
+        <v>2.1395774037265842</v>
       </c>
       <c r="C28">
-        <v>9.5893635315825107E-2</v>
+        <v>9.5705924763737599E-2</v>
       </c>
       <c r="D28">
-        <v>0.32655562559755169</v>
+        <v>0.32430026545089363</v>
       </c>
     </row>
   </sheetData>
